--- a/grupo2.xlsx
+++ b/grupo2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayra Peter\Documents\5 SEMESTRE\Transferencia de Calor e Mecanica dos Solidos\TermoSol1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB642D65-9D4B-43A3-BB16-CB1A0DE3E3D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F893587E-C1E2-4C17-805D-E6C083F6688A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,19 +543,19 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="10">
         <v>0</v>
@@ -591,34 +591,50 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="B7" s="10">
-        <v>2</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B8" s="10">
-        <v>2</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B9" s="10">
-        <v>2</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="B10" s="10">
-        <v>4</v>
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.86599999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -628,10 +644,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -665,14 +681,14 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D2" s="3">
-        <v>7.0685799999999993E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -683,10 +699,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D3" s="3">
-        <v>7.0685799999999993E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -700,10 +716,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D4" s="3">
-        <v>7.0685799999999993E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -714,10 +730,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D5" s="3">
-        <v>7.0685799999999993E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -728,24 +744,24 @@
         <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D6" s="3">
-        <v>7.0685799999999993E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D7" s="3">
-        <v>7.0685799999999993E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -756,137 +772,179 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D8" s="3">
-        <v>7.0685799999999993E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D9" s="3">
-        <v>7.0685799999999993E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D10" s="3">
-        <v>7.0685799999999993E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D11" s="3">
-        <v>7.0685799999999993E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D12" s="3">
-        <v>7.0685799999999993E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D13" s="3">
-        <v>7.0685799999999993E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D14" s="3">
-        <v>7.0685799999999993E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D15" s="3">
-        <v>7.0685799999999993E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
         <v>7</v>
       </c>
-      <c r="B16" s="2">
-        <v>9</v>
-      </c>
       <c r="C16" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D16" s="3">
-        <v>7.0685799999999993E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2">
         <v>8</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="3">
+        <v>200000000000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
         <v>9</v>
       </c>
-      <c r="C17" s="3">
-        <v>210000000000</v>
-      </c>
-      <c r="D17" s="3">
-        <v>7.0685799999999993E-2</v>
+      <c r="C18" s="3">
+        <v>200000000000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>200000000000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3">
+        <v>200000000000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
   </sheetData>
@@ -900,7 +958,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -925,28 +983,28 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>4000</v>
+        <v>-7000</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>4000</v>
+        <v>-7000</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -959,15 +1017,21 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>20000</v>
+        <v>-7000</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-7000</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
@@ -1107,7 +1171,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1136,7 +1200,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1151,17 +1215,17 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
@@ -1170,32 +1234,20 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
@@ -1291,5 +1343,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>